--- a/data/trans_bre/P1002-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,23</t>
+          <t>-0,44; 5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,25</t>
+          <t>-0,51; 6,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,33</t>
+          <t>-1,19; 5,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,71</t>
+          <t>-0,62; 4,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 256,94</t>
+          <t>-14,83; 205,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 255,05</t>
+          <t>-12,39; 243,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 183,53</t>
+          <t>-23,68; 200,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 142,58</t>
+          <t>-11,36; 147,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,96</t>
+          <t>-0,07; 7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,62</t>
+          <t>0,43; 8,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,76</t>
+          <t>-2,33; 4,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,21</t>
+          <t>2,95; 8,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 369,8</t>
+          <t>-7,68; 313,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 238,02</t>
+          <t>1,3; 257,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 181,52</t>
+          <t>-44,29; 188,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 623,34</t>
+          <t>61,94; 561,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,92</t>
+          <t>-0,07; 10,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 14,37</t>
+          <t>3,22; 13,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 15,19</t>
+          <t>2,5; 15,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 10,65</t>
+          <t>-0,76; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 255,97</t>
+          <t>-4,02; 243,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,85; 207,62</t>
+          <t>27,82; 195,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,13; 309,91</t>
+          <t>34,93; 310,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 386,82</t>
+          <t>-12,11; 431,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,67</t>
+          <t>-0,59; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,52</t>
+          <t>0,63; 6,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,21</t>
+          <t>2,19; 7,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,44</t>
+          <t>-3,87; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 77,32</t>
+          <t>-8,77; 78,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 92,94</t>
+          <t>6,22; 88,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,54; 162,39</t>
+          <t>31,84; 169,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 43,17</t>
+          <t>-50,17; 41,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,45</t>
+          <t>-0,64; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 17,18</t>
+          <t>9,63; 16,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,8</t>
+          <t>4,05; 10,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,68</t>
+          <t>0,87; 8,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 155,67</t>
+          <t>-10,56; 183,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>125,72; 406,12</t>
+          <t>126,33; 391,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,19; 177,94</t>
+          <t>44,78; 181,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 143,6</t>
+          <t>9,53; 140,0</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,05</t>
+          <t>2,62; 7,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,55</t>
+          <t>6,23; 13,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,43</t>
+          <t>4,24; 10,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 12,59</t>
+          <t>3,41; 12,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,57; 454,76</t>
+          <t>40,16; 452,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,23; 599,71</t>
+          <t>69,57; 546,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,41; 522,41</t>
+          <t>67,61; 532,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,62; 636,14</t>
+          <t>27,54; 648,89</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,48</t>
+          <t>2,02; 4,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,72</t>
+          <t>5,8; 8,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,78</t>
+          <t>4,06; 6,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,05</t>
+          <t>2,45; 6,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,86; 95,01</t>
+          <t>35,05; 97,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,98; 146,06</t>
+          <t>80,04; 146,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>70,22; 144,03</t>
+          <t>70,04; 145,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,64; 133,72</t>
+          <t>42,65; 134,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1002-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
